--- a/ONCHO/Breeding Site Survey/Cote d'Ivoire/2023/civ_oncho_bsa_4_community_form_202302.xlsx
+++ b/ONCHO/Breeding Site Survey/Cote d'Ivoire/2023/civ_oncho_bsa_4_community_form_202302.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Cote d'Ivoire\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04A57D3-4FC3-4919-9353-E25FA506DA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834FB1D8-3573-4224-B5FC-864BAD8E274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -7287,12 +7287,6 @@
     <t>12. Mois de la mouche noire Sélectionnez le ou les mois au cours desquels le répondant déclare que les piqûres de mouche noire sont les plus fréquentes.</t>
   </si>
   <si>
-    <t>(2023 Fev) 4. Fiche de collecte des Simulies par équipe V2</t>
-  </si>
-  <si>
-    <t>civ_oncho_bsa_4_community_form_202302_v2</t>
-  </si>
-  <si>
     <t>15. pouvez--vous expliquer ce qu'est l'onchocercose/la cécité des rivières</t>
   </si>
   <si>
@@ -7311,9 +7305,6 @@
     <t>b_temps_presence</t>
   </si>
   <si>
-    <t>select_one tps-presence</t>
-  </si>
-  <si>
     <t>Soir</t>
   </si>
   <si>
@@ -7336,6 +7327,15 @@
   </si>
   <si>
     <t>${c_consent} = 'Oui' and ${b_savoir_oncho} = 'Oui'</t>
+  </si>
+  <si>
+    <t>select_multiple tps-presence</t>
+  </si>
+  <si>
+    <t>(2023 Fev) 4. Fiche de collecte des Simulies par équipe V2.1</t>
+  </si>
+  <si>
+    <t>civ_oncho_bsa_4_community_form_202302_v2_1</t>
   </si>
 </sst>
 </file>
@@ -7750,11 +7750,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="14" spans="1:14" ht="63">
       <c r="A14" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -8122,13 +8122,13 @@
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>2429</v>
+        <v>2435</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -8149,10 +8149,10 @@
         <v>30</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -8173,17 +8173,17 @@
         <v>36</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="8" t="s">
@@ -8215,7 +8215,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
@@ -8563,46 +8563,46 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B24" t="s">
         <v>2431</v>
       </c>
-      <c r="B24" t="s">
-        <v>2434</v>
-      </c>
       <c r="C24" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="B25" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="C25" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="B26" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="C26" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="B27" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="C27" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -41557,8 +41557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -41583,10 +41583,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>2421</v>
+        <v>2436</v>
       </c>
       <c r="B2" t="s">
-        <v>2422</v>
+        <v>2437</v>
       </c>
       <c r="C2" t="s">
         <v>2409</v>
